--- a/data_files/mean_sampling_depths_noclones.xlsx
+++ b/data_files/mean_sampling_depths_noclones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erin_\Documents\GitHub\SEFL_Pastreoides_2bRAD\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0827D829-6019-48A6-AB99-9A916EC87918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7457740-FA4C-4DEB-99A2-8C703F4D1895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5DDF8A3B-BBBF-4F82-99FF-69E45BB32644}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>St. Lucie Reef</t>
   </si>
   <si>
-    <t>Pompano/LBTS</t>
+    <t>collection_depth_m</t>
   </si>
   <si>
-    <t>collection_depth_m</t>
+    <t>Ft. Lauderdale</t>
   </si>
 </sst>
 </file>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CDC75C-63E0-4448-96DA-91DA2745D457}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -688,7 +688,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>6.71</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>7.01</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>6.71</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>7.32</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>7.01</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>7.01</v>
@@ -746,6 +746,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E4F357A74EB5DE4F80CC4BA46A4DADD9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed75198a348fe1e0d13e348f3ac621b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f393ce-32d4-49a0-a1d0-8a93e5d5457d" xmlns:ns4="74cb0a78-541c-475b-9c81-3f20b55c3fc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a49fbff9dd746e1c75a8a163bd4b5475" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f393ce-32d4-49a0-a1d0-8a93e5d5457d"/>
@@ -956,36 +971,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B737C4-DFCF-4984-A19F-A2C3788BABDA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25ED76A5-2464-487F-8ACC-496A45AFD225}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f1f393ce-32d4-49a0-a1d0-8a93e5d5457d"/>
-    <ds:schemaRef ds:uri="74cb0a78-541c-475b-9c81-3f20b55c3fc4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1008,9 +997,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25ED76A5-2464-487F-8ACC-496A45AFD225}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B737C4-DFCF-4984-A19F-A2C3788BABDA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f1f393ce-32d4-49a0-a1d0-8a93e5d5457d"/>
+    <ds:schemaRef ds:uri="74cb0a78-541c-475b-9c81-3f20b55c3fc4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>